--- a/Documentation/Project Weekly Report - FHF - 4.xlsx
+++ b/Documentation/Project Weekly Report - FHF - 4.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75D55E5-1C93-426F-B08F-F543AD40AA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B01C583-8CDB-46A4-8BC3-5F44CC83EB94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -739,7 +739,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E33" sqref="E33"/>
+      <selection pane="bottomLeft" activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -958,9 +958,7 @@
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>11</v>
-      </c>
+      <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
